--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1471.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1471.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.245532023773184</v>
+        <v>1.097472071647644</v>
       </c>
       <c r="B1">
-        <v>1.559282801541594</v>
+        <v>3.556003332138062</v>
       </c>
       <c r="C1">
-        <v>2.270445126706074</v>
+        <v>3.31883978843689</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.747977495193481</v>
       </c>
       <c r="E1">
-        <v>1.446421872319801</v>
+        <v>1.098143815994263</v>
       </c>
     </row>
   </sheetData>
